--- a/API-spec.xlsx
+++ b/API-spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\2018\Highton_Spirit-In-Motion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E185DDAD-C826-432F-8594-97DDFF6B99E7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A0249-A4F0-4997-AD70-1890EAC402C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>url</t>
   </si>
@@ -35,11 +35,6 @@
   </si>
   <si>
     <t>실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 실패 Code : 405
-서버오류 Code : 500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,6 +102,62 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/signIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/signUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name
+id
+pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id
+pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Code : 200
+{
+    result: success
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버오류 Code : 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패 Code : 405 (아이디나 비밀번호 오류)
+서버오류 Code : 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 실패 Code : 405 (이미 존재하는 아이디)
+서버오류 Code : 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 친구들은 추후 추가예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,36 +555,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.200000000000003" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="28.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.59765625" customWidth="1"/>
     <col min="3" max="3" width="30.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.19921875" customWidth="1"/>
     <col min="5" max="5" width="29.8984375" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="37.59765625" customWidth="1"/>
+    <col min="6" max="6" width="26.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.19921875" customWidth="1"/>
     <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -552,43 +603,77 @@
     </row>
     <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="9"/>

--- a/API-spec.xlsx
+++ b/API-spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\2018\Highton_Spirit-In-Motion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A0249-A4F0-4997-AD70-1890EAC402C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F0FCA-7DED-4A3E-A607-D689D0521EC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>url</t>
   </si>
@@ -157,7 +157,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q&amp;A 친구들은 추후 추가예정</t>
+    <t>질문 리스트 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 리스트 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 자세히 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문에 대한 답변들도 봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Code : 200
+[
+    {
+        id: String
+        writer: String
+        conent: String
+    },
+    …
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer
+content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Code : 200
+{
+    writer: String
+    content: String
+    answers: Array&lt;Answer&gt;
+}
+Answer
+{
+    writer: String
+    content: String
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문에 대해 답변 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 얻어오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 체육시설들을 얻어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+[
+    {
+        lat: String,
+        lng: String,
+        placeName: String,
+    },
+    ...
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +292,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -555,23 +636,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.200000000000003" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.59765625" customWidth="1"/>
     <col min="3" max="3" width="30.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.19921875" customWidth="1"/>
     <col min="5" max="5" width="29.8984375" customWidth="1"/>
-    <col min="6" max="6" width="26.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="45.19921875" customWidth="1"/>
     <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -601,7 +682,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -611,16 +692,16 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -634,16 +715,16 @@
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -657,76 +738,148 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:14" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="291" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -762,7 +915,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">

--- a/API-spec.xlsx
+++ b/API-spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\2018\Highton_Spirit-In-Motion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F0FCA-7DED-4A3E-A607-D689D0521EC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DCF731-E073-43EC-B91B-6D6E8837FBA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,20 +193,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>writer
+content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문에 대해 답변 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 얻어오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 체육시설들을 얻어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+[
+    {
+        lat: String,
+        lng: String,
+        placeName: String,
+    },
+    ...
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Status Code : 200
 [
     {
         id: String
         writer: String
         conent: String
+        date: String
     },
     …
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writer
-content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,35 +249,8 @@
 {
     writer: String
     content: String
+    date: String
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문에 대해 답변 씀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 얻어오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 체육시설들을 얻어옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status Code: 200
-[
-    {
-        lat: String,
-        lng: String,
-        placeName: String,
-    },
-    ...
-]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -751,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="174" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -766,7 +768,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>21</v>
@@ -786,7 +788,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>20</v>
@@ -796,7 +798,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="226.2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -811,7 +813,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>21</v>
@@ -828,10 +830,10 @@
         <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>20</v>
@@ -842,20 +844,20 @@
     </row>
     <row r="9" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>21</v>
